--- a/data_science_bootcamp_2021/Waste_Management_EDA_proyect/data/PIBcorriente_milesdeeuros.xlsx
+++ b/data_science_bootcamp_2021/Waste_Management_EDA_proyect/data/PIBcorriente_milesdeeuros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary\Desktop\Boot Camp\Python\MaryC-MezaR\data_science_bootcamp_2021\proyecto_EDA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary\Desktop\Boot Camp\Python\MaryC-MezaR\data_science_bootcamp_2021\Waste_Management_EDA_proyect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191B3CF4-DFA7-4D2E-A895-075F6EBBF932}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B132F0F-8171-4CEE-A7AA-228471FB657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53B336C3-7881-4D28-AE13-8AFA6E102B81}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>MELILLA</t>
   </si>
   <si>
-    <t>Total Nacional</t>
-  </si>
-  <si>
     <t>PRINCIPADO DE ASTURIAS</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">LA RIOJA </t>
+  </si>
+  <si>
+    <t>TOTAL NACIONAL</t>
   </si>
 </sst>
 </file>
@@ -203,11 +203,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -222,9 +221,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -232,9 +228,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_cuadrosWEB" xfId="1" xr:uid="{D9790281-2B1C-4F6E-9AE2-BF0D66578F4C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,7 +551,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -569,64 +564,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>2000</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="9">
         <v>2001</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="9">
         <v>2002</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="9">
         <v>2003</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="9">
         <v>2004</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="9">
         <v>2005</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="9">
         <v>2006</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="9">
         <v>2007</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="9">
         <v>2008</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="9">
         <v>2009</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="9">
         <v>2010</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="9">
         <v>2011</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="9">
         <v>2012</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="9">
         <v>2013</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="9">
         <v>2014</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="9">
         <v>2015</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="9">
         <v>2016</v>
       </c>
-      <c r="S1" s="10">
+      <c r="S1" s="9">
         <v>2017</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="9">
         <v>2018</v>
       </c>
     </row>
@@ -756,7 +751,7 @@
     </row>
     <row r="4" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5">
         <v>14305047</v>
@@ -818,7 +813,7 @@
     </row>
     <row r="5" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>16545333</v>
@@ -1376,7 +1371,7 @@
     </row>
     <row r="14" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5">
         <v>114454953</v>
@@ -1438,7 +1433,7 @@
     </row>
     <row r="15" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5">
         <v>15717410</v>
@@ -1500,7 +1495,7 @@
     </row>
     <row r="16" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>11177110</v>
@@ -1624,7 +1619,7 @@
     </row>
     <row r="18" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5">
         <v>4900954</v>
@@ -1809,64 +1804,64 @@
       </c>
     </row>
     <row r="21" spans="1:20" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="9">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
         <v>647851000</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>700993000</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>749552000</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>802266000</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>859437000</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>927357000</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>1003823000</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>1075539000</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>1109541000</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>1069323000</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>1072709000</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>1063763000</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>1031099000</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <v>1020348000</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="8">
         <v>1032158000</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="8">
         <v>1077590000</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="8">
         <v>1113840000</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="8">
         <v>1161867000</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <v>1204241000</v>
       </c>
     </row>

--- a/data_science_bootcamp_2021/Waste_Management_EDA_proyect/data/PIBcorriente_milesdeeuros.xlsx
+++ b/data_science_bootcamp_2021/Waste_Management_EDA_proyect/data/PIBcorriente_milesdeeuros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary\Desktop\Boot Camp\Python\MaryC-MezaR\data_science_bootcamp_2021\Waste_Management_EDA_proyect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B132F0F-8171-4CEE-A7AA-228471FB657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ED6788-F924-4487-9766-E63D7C3A7755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{53B336C3-7881-4D28-AE13-8AFA6E102B81}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabla_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabla_1!$A$1:$N$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabla_1!$A$1:$N$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Tabla_1!$A:$A,Tabla_1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Comunidad Autónoma</t>
   </si>
@@ -76,12 +76,6 @@
     <t>PAÍS VASCO</t>
   </si>
   <si>
-    <t>CEUTA</t>
-  </si>
-  <si>
-    <t>MELILLA</t>
-  </si>
-  <si>
     <t>PRINCIPADO DE ASTURIAS</t>
   </si>
   <si>
@@ -98,16 +92,13 @@
   </si>
   <si>
     <t xml:space="preserve">LA RIOJA </t>
-  </si>
-  <si>
-    <t>TOTAL NACIONAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,11 +128,6 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -163,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,22 +177,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -220,10 +195,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -544,14 +515,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -564,64 +535,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>2000</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="7">
         <v>2001</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="7">
         <v>2002</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="7">
         <v>2003</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="7">
         <v>2004</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="7">
         <v>2005</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="7">
         <v>2006</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="7">
         <v>2007</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="7">
         <v>2008</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="7">
         <v>2009</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="7">
         <v>2010</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="7">
         <v>2011</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="7">
         <v>2012</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="7">
         <v>2013</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="7">
         <v>2014</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="7">
         <v>2015</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="7">
         <v>2016</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="7">
         <v>2017</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="7">
         <v>2018</v>
       </c>
     </row>
@@ -751,7 +722,7 @@
     </row>
     <row r="4" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5">
         <v>14305047</v>
@@ -813,7 +784,7 @@
     </row>
     <row r="5" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>16545333</v>
@@ -1371,7 +1342,7 @@
     </row>
     <row r="14" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5">
         <v>114454953</v>
@@ -1433,7 +1404,7 @@
     </row>
     <row r="15" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>15717410</v>
@@ -1495,7 +1466,7 @@
     </row>
     <row r="16" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5">
         <v>11177110</v>
@@ -1619,7 +1590,7 @@
     </row>
     <row r="18" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>4900954</v>
@@ -1677,192 +1648,6 @@
       </c>
       <c r="T18" s="5">
         <v>8593185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1017262</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1051634</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1107804</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1183283</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1250959</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1323250</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1419795</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1512357</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1562940</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1551373</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1578805</v>
-      </c>
-      <c r="M19" s="5">
-        <v>1575312</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1525243</v>
-      </c>
-      <c r="O19" s="5">
-        <v>1551851</v>
-      </c>
-      <c r="P19" s="5">
-        <v>1543087</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>1597390</v>
-      </c>
-      <c r="R19" s="5">
-        <v>1636511</v>
-      </c>
-      <c r="S19" s="5">
-        <v>1659859</v>
-      </c>
-      <c r="T19" s="5">
-        <v>1720295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5">
-        <v>921312</v>
-      </c>
-      <c r="C20" s="5">
-        <v>953301</v>
-      </c>
-      <c r="D20" s="5">
-        <v>993232</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1059665</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1130075</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1203682</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1289507</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1354257</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1403440</v>
-      </c>
-      <c r="K20" s="5">
-        <v>1396649</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1415709</v>
-      </c>
-      <c r="M20" s="5">
-        <v>1417774</v>
-      </c>
-      <c r="N20" s="5">
-        <v>1369832</v>
-      </c>
-      <c r="O20" s="5">
-        <v>1389601</v>
-      </c>
-      <c r="P20" s="5">
-        <v>1402792</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>1461285</v>
-      </c>
-      <c r="R20" s="5">
-        <v>1506101</v>
-      </c>
-      <c r="S20" s="5">
-        <v>1519867</v>
-      </c>
-      <c r="T20" s="5">
-        <v>1582540</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8">
-        <v>647851000</v>
-      </c>
-      <c r="C21" s="8">
-        <v>700993000</v>
-      </c>
-      <c r="D21" s="8">
-        <v>749552000</v>
-      </c>
-      <c r="E21" s="8">
-        <v>802266000</v>
-      </c>
-      <c r="F21" s="8">
-        <v>859437000</v>
-      </c>
-      <c r="G21" s="8">
-        <v>927357000</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1003823000</v>
-      </c>
-      <c r="I21" s="8">
-        <v>1075539000</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1109541000</v>
-      </c>
-      <c r="K21" s="8">
-        <v>1069323000</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1072709000</v>
-      </c>
-      <c r="M21" s="8">
-        <v>1063763000</v>
-      </c>
-      <c r="N21" s="8">
-        <v>1031099000</v>
-      </c>
-      <c r="O21" s="8">
-        <v>1020348000</v>
-      </c>
-      <c r="P21" s="8">
-        <v>1032158000</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>1077590000</v>
-      </c>
-      <c r="R21" s="8">
-        <v>1113840000</v>
-      </c>
-      <c r="S21" s="8">
-        <v>1161867000</v>
-      </c>
-      <c r="T21" s="8">
-        <v>1204241000</v>
       </c>
     </row>
   </sheetData>
